--- a/실무_엑셀_예제_파일/Chapter06/06-002.xlsx
+++ b/실무_엑셀_예제_파일/Chapter06/06-002.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oppadu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C15CAB-5DB0-477D-B51D-6A588062CA2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2668505D-94DA-4E98-8CFF-4AA551C77CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B11B3588-377A-4A33-B6AC-66DE4B604918}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{B11B3588-377A-4A33-B6AC-66DE4B604918}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -94,6 +85,12 @@
   <si>
     <t>끝까지배달</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달업체2</t>
+  </si>
+  <si>
+    <t>사용자수3</t>
   </si>
 </sst>
 </file>
@@ -203,17 +200,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -225,32 +216,61 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -261,6 +281,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7536915C-E228-4B1F-BCE9-3C9540747B88}" name="표1" displayName="표1" ref="B6:F15" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B6:F15" xr:uid="{7536915C-E228-4B1F-BCE9-3C9540747B88}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E506D1D4-22E8-4C7C-8E84-A07D39B407F6}" name="날짜" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{3146F731-30BA-4B34-8ACB-2B3B4F6C093A}" name="배달업체"/>
+    <tableColumn id="3" xr3:uid="{605E881F-9326-4D47-A46E-769A44D801AC}" name="사용자수"/>
+    <tableColumn id="4" xr3:uid="{6ADEF5B1-3F2C-4582-A5EF-162A0FF9E5A0}" name="배달업체2"/>
+    <tableColumn id="5" xr3:uid="{0F96A697-6EB9-4DFD-9AAF-2C593A8E98D7}" name="사용자수3" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,19 +594,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20ADC256-89AC-4880-AA49-B7B1CE8A7DB4}">
-  <dimension ref="B1:G16"/>
+  <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="6" width="13.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="5.58203125" customWidth="1"/>
+    <col min="2" max="6" width="13.58203125" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:6" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
@@ -580,198 +616,194 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="3" spans="2:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <f>SUM(D8:D15)</f>
         <v>3203</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <f>SUM(F8:F15)</f>
         <v>2893</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="4.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="10" t="s">
+    <row r="5" spans="2:6" ht="4.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:6" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="10"/>
-      <c r="C7" s="8" t="s">
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="7"/>
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="12">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="8">
         <f ca="1">TODAY()</f>
-        <v>44330</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>45769</v>
+      </c>
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>383</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="12"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>306</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="12"/>
-      <c r="C10" s="1" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="8"/>
+      <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>499</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>393</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="12"/>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>447</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>446</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="12">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="8">
         <f ca="1">B8+1</f>
-        <v>44331</v>
+        <v>45770</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>489</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="12"/>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>338</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="12"/>
-      <c r="C14" s="1" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="8"/>
+      <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>431</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="12"/>
-      <c r="C15" s="1" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="8"/>
+      <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>310</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>499</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F16" s="6"/>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F16" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>